--- a/QAA biomedical benchmarks.xlsx
+++ b/QAA biomedical benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/dmamartin_dundee_ac_uk/Documents/Teaching/Programme Lead/Curriculum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmamartin\Projects\curriculumTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E02F1657-38EC-4C85-8B51-29AF4E6C3A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F3590-0FAC-4525-BD72-2D44ECB678C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{571609AE-D9F5-48AB-A6D0-4C3669FF1E5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{571609AE-D9F5-48AB-A6D0-4C3669FF1E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="255">
   <si>
-    <t>subject</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -56,12 +53,6 @@
   </si>
   <si>
     <t>subsection_text</t>
-  </si>
-  <si>
-    <t>descriptor text</t>
-  </si>
-  <si>
-    <t>section text</t>
   </si>
   <si>
     <t>Biomedical Sciences</t>
@@ -988,6 +979,15 @@
   </si>
   <si>
     <t xml:space="preserve">seminars, tutorials, lectures </t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>section_text</t>
+  </si>
+  <si>
+    <t>descriptor_text</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91C5BA6-CE67-43E7-9074-FC12373ADFB3}">
   <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,30 +1416,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1448,21 +1448,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1471,21 +1471,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1494,21 +1494,21 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1517,21 +1517,21 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1540,21 +1540,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1563,21 +1563,21 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1586,21 +1586,21 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1609,21 +1609,21 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1632,21 +1632,21 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1655,21 +1655,21 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1678,21 +1678,21 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1701,21 +1701,21 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1724,21 +1724,21 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1747,21 +1747,21 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1770,21 +1770,21 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1793,21 +1793,21 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1816,21 +1816,21 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1839,21 +1839,21 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1862,21 +1862,21 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1885,21 +1885,21 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1908,21 +1908,21 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1931,21 +1931,21 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1954,21 +1954,21 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1977,21 +1977,21 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -2000,21 +2000,21 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2023,21 +2023,21 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2046,21 +2046,21 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2069,21 +2069,21 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2092,21 +2092,21 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2115,21 +2115,21 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2138,21 +2138,21 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2161,21 +2161,21 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2184,21 +2184,21 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2207,21 +2207,21 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2230,21 +2230,21 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2253,21 +2253,21 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2276,21 +2276,21 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2299,21 +2299,21 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2322,21 +2322,21 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2345,21 +2345,21 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2368,21 +2368,21 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2391,21 +2391,21 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2414,21 +2414,21 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -2437,21 +2437,21 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -2460,21 +2460,21 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -2483,21 +2483,21 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -2506,21 +2506,21 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -2529,21 +2529,21 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -2552,21 +2552,21 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2575,21 +2575,21 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -2598,21 +2598,21 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -2621,21 +2621,21 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -2644,21 +2644,21 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -2667,21 +2667,21 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -2690,21 +2690,21 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2713,21 +2713,21 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2736,21 +2736,21 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2759,21 +2759,21 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -2782,22 +2782,22 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -2806,21 +2806,21 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -2829,21 +2829,21 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -2852,21 +2852,21 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -2875,21 +2875,21 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -2898,21 +2898,21 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -2921,21 +2921,21 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2944,21 +2944,21 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2967,21 +2967,21 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2990,21 +2990,21 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -3013,21 +3013,21 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" t="s">
         <v>94</v>
       </c>
-      <c r="F70" t="s">
-        <v>97</v>
-      </c>
       <c r="G70" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -3036,21 +3036,21 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" t="s">
         <v>94</v>
       </c>
-      <c r="F71" t="s">
-        <v>97</v>
-      </c>
       <c r="G71" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -3059,21 +3059,21 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s">
         <v>94</v>
       </c>
-      <c r="F72" t="s">
-        <v>97</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3082,21 +3082,21 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -3105,21 +3105,21 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3128,21 +3128,21 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -3151,21 +3151,21 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -3174,21 +3174,21 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -3197,21 +3197,21 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3220,21 +3220,21 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -3243,21 +3243,21 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -3266,21 +3266,21 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -3289,21 +3289,21 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -3312,21 +3312,21 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -3335,21 +3335,21 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -3358,21 +3358,21 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -3381,21 +3381,21 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3404,21 +3404,21 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3427,21 +3427,21 @@
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -3450,21 +3450,21 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -3473,21 +3473,21 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3496,21 +3496,21 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -3519,21 +3519,21 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -3542,21 +3542,21 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3565,21 +3565,21 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -3588,21 +3588,21 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -3611,21 +3611,21 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -3634,21 +3634,21 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -3657,21 +3657,21 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -3680,21 +3680,21 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -3703,21 +3703,21 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -3726,21 +3726,21 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -3749,21 +3749,21 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -3772,21 +3772,21 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -3795,21 +3795,21 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -3818,21 +3818,21 @@
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -3841,21 +3841,21 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -3864,21 +3864,21 @@
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -3887,21 +3887,21 @@
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -3910,21 +3910,21 @@
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -3933,21 +3933,21 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -3956,21 +3956,21 @@
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -3979,21 +3979,21 @@
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -4002,21 +4002,21 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -4025,21 +4025,21 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -4048,21 +4048,21 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B116">
         <v>6</v>
@@ -4071,21 +4071,21 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -4094,21 +4094,21 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F117" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -4117,21 +4117,21 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G118" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -4140,21 +4140,21 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
+        <v>115</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G119" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -4163,21 +4163,21 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
+        <v>115</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G120" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -4186,21 +4186,21 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
+        <v>115</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G121" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -4209,21 +4209,21 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
+        <v>115</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G122" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -4232,21 +4232,21 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
+        <v>115</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G123" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -4255,21 +4255,21 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
+        <v>115</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G124" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -4278,21 +4278,21 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -4301,21 +4301,21 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G126" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -4324,21 +4324,21 @@
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G127" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -4347,21 +4347,21 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -4370,21 +4370,21 @@
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G129" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -4393,21 +4393,21 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -4416,21 +4416,21 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -4439,21 +4439,21 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -4462,21 +4462,21 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -4485,21 +4485,21 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -4508,21 +4508,21 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -4531,21 +4531,21 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -4554,21 +4554,21 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -4577,21 +4577,21 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E138" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -4600,21 +4600,21 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E139" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -4623,21 +4623,21 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E140" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -4646,21 +4646,21 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E141" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -4669,21 +4669,21 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E142" t="s">
+        <v>131</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -4692,21 +4692,21 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -4715,21 +4715,21 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -4738,21 +4738,21 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -4761,21 +4761,21 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -4784,21 +4784,21 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -4807,21 +4807,21 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -4830,21 +4830,21 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E149" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -4853,21 +4853,21 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E150" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -4876,21 +4876,21 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E151" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -4899,21 +4899,21 @@
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -4922,21 +4922,21 @@
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -4945,21 +4945,21 @@
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -4968,21 +4968,21 @@
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -4991,21 +4991,21 @@
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -5014,21 +5014,21 @@
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -5037,21 +5037,21 @@
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -5060,21 +5060,21 @@
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E159" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -5083,21 +5083,21 @@
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -5106,21 +5106,21 @@
         <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E161" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B162">
         <v>8</v>
@@ -5129,21 +5129,21 @@
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
+        <v>152</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -5152,21 +5152,21 @@
         <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -5175,21 +5175,21 @@
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B165">
         <v>8</v>
@@ -5198,21 +5198,21 @@
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B166">
         <v>8</v>
@@ -5221,21 +5221,21 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B167">
         <v>8</v>
@@ -5244,21 +5244,21 @@
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B168">
         <v>8</v>
@@ -5267,21 +5267,21 @@
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E168" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B169">
         <v>8</v>
@@ -5290,21 +5290,21 @@
         <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E169" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B170">
         <v>8</v>
@@ -5313,21 +5313,21 @@
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E170" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B171">
         <v>8</v>
@@ -5336,21 +5336,21 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B172">
         <v>8</v>
@@ -5359,21 +5359,21 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B173">
         <v>8</v>
@@ -5382,21 +5382,21 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B174">
         <v>8</v>
@@ -5405,21 +5405,21 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B175">
         <v>8</v>
@@ -5428,21 +5428,21 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E175" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B176">
         <v>8</v>
@@ -5451,21 +5451,21 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B177">
         <v>8</v>
@@ -5474,21 +5474,21 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F177" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B178">
         <v>8</v>
@@ -5497,21 +5497,21 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B179">
         <v>8</v>
@@ -5520,21 +5520,21 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B180">
         <v>8</v>
@@ -5543,21 +5543,21 @@
         <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B181">
         <v>8</v>
@@ -5566,21 +5566,21 @@
         <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B182">
         <v>8</v>
@@ -5589,21 +5589,21 @@
         <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5612,21 +5612,21 @@
         <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B184">
         <v>8</v>
@@ -5635,21 +5635,21 @@
         <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5658,21 +5658,21 @@
         <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B186">
         <v>8</v>
@@ -5681,21 +5681,21 @@
         <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B187">
         <v>8</v>
@@ -5704,21 +5704,21 @@
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F187" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B188">
         <v>8</v>
@@ -5727,21 +5727,21 @@
         <v>11</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B189">
         <v>8</v>
@@ -5750,16 +5750,16 @@
         <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5782,6 +5782,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E21E2FC40F2F9849A2101429659C885F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2545089e4ed84a638e527dd043f24dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69302c11-379d-46f2-838b-87b5f21836a2" xmlns:ns4="57d8a762-ad9e-4d6d-b050-672b9de5a367" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="822fea063658fada4c5f4dd3ad4328c4" ns3:_="" ns4:_="">
     <xsd:import namespace="69302c11-379d-46f2-838b-87b5f21836a2"/>
@@ -6010,12 +6016,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8009B2-8DC3-4554-AA06-E91ED1674A3F}">
   <ds:schemaRefs>
@@ -6025,6 +6025,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432E380B-9393-44EC-BCE1-D5D40A4A2A1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="69302c11-379d-46f2-838b-87b5f21836a2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="57d8a762-ad9e-4d6d-b050-672b9de5a367"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B362F18-0E3E-4985-A829-AADE2A06A9C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6041,21 +6058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432E380B-9393-44EC-BCE1-D5D40A4A2A1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="69302c11-379d-46f2-838b-87b5f21836a2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="57d8a762-ad9e-4d6d-b050-672b9de5a367"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>